--- a/复盘/notification_monitoring_files/成交量M1占比.xlsx
+++ b/复盘/notification_monitoring_files/成交量M1占比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
   </si>
   <si>
     <t>2018-03-09</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +594,10 @@
         <v>543247.13</v>
       </c>
       <c r="D2">
-        <v>5120.20852519</v>
+        <v>5023.59266236</v>
       </c>
       <c r="E2">
-        <v>0.9425192039560338</v>
+        <v>0.9247343216263287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -602,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D3">
-        <v>4029.81273007</v>
+        <v>6071.50774486</v>
       </c>
       <c r="E3">
-        <v>0.7410602656318802</v>
+        <v>1.11763273279695</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -619,13 +625,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D4">
-        <v>4284.83306962</v>
+        <v>5120.20852519</v>
       </c>
       <c r="E4">
-        <v>0.7879570951441471</v>
+        <v>0.9425192039560338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -639,10 +645,10 @@
         <v>543790.15</v>
       </c>
       <c r="D5">
-        <v>4984.26600567</v>
+        <v>4029.81273007</v>
       </c>
       <c r="E5">
-        <v>0.9165789423861391</v>
+        <v>0.7410602656318802</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -656,10 +662,10 @@
         <v>543790.15</v>
       </c>
       <c r="D6">
-        <v>3863.79478227</v>
+        <v>4284.83306962</v>
       </c>
       <c r="E6">
-        <v>0.7105304835459045</v>
+        <v>0.7879570951441471</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -673,10 +679,10 @@
         <v>543790.15</v>
       </c>
       <c r="D7">
-        <v>4168.15888275</v>
+        <v>4984.26600567</v>
       </c>
       <c r="E7">
-        <v>0.7665013576928525</v>
+        <v>0.9165789423861391</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -690,10 +696,10 @@
         <v>543790.15</v>
       </c>
       <c r="D8">
-        <v>4325.13407763</v>
+        <v>3863.79478227</v>
       </c>
       <c r="E8">
-        <v>0.7953682275469683</v>
+        <v>0.7105304835459045</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -707,10 +713,10 @@
         <v>543790.15</v>
       </c>
       <c r="D9">
-        <v>4248.73862735</v>
+        <v>4168.15888275</v>
       </c>
       <c r="E9">
-        <v>0.7813195269075763</v>
+        <v>0.7665013576928525</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -724,10 +730,10 @@
         <v>543790.15</v>
       </c>
       <c r="D10">
-        <v>4610.29107906</v>
+        <v>4325.13407763</v>
       </c>
       <c r="E10">
-        <v>0.8478070224442278</v>
+        <v>0.7953682275469683</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -741,10 +747,10 @@
         <v>543790.15</v>
       </c>
       <c r="D11">
-        <v>4672.11850129</v>
+        <v>4248.73862735</v>
       </c>
       <c r="E11">
-        <v>0.8591767433246078</v>
+        <v>0.7813195269075763</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -758,10 +764,10 @@
         <v>543790.15</v>
       </c>
       <c r="D12">
-        <v>3326.35790915</v>
+        <v>4610.29107906</v>
       </c>
       <c r="E12">
-        <v>0.6116988160138612</v>
+        <v>0.8478070224442278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,10 +781,10 @@
         <v>543790.15</v>
       </c>
       <c r="D13">
-        <v>3252.75220021</v>
+        <v>4672.11850129</v>
       </c>
       <c r="E13">
-        <v>0.5981631333723129</v>
+        <v>0.8591767433246078</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -792,10 +798,10 @@
         <v>543790.15</v>
       </c>
       <c r="D14">
-        <v>2368.58961694</v>
+        <v>3326.35790915</v>
       </c>
       <c r="E14">
-        <v>0.4355705260457549</v>
+        <v>0.6116988160138612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -809,10 +815,10 @@
         <v>543790.15</v>
       </c>
       <c r="D15">
-        <v>3471.48387368</v>
+        <v>3252.75220021</v>
       </c>
       <c r="E15">
-        <v>0.6383866779639168</v>
+        <v>0.5981631333723129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -826,10 +832,10 @@
         <v>543790.15</v>
       </c>
       <c r="D16">
-        <v>3497.01666093</v>
+        <v>2368.58961694</v>
       </c>
       <c r="E16">
-        <v>0.6430820162759475</v>
+        <v>0.4355705260457549</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -843,10 +849,10 @@
         <v>543790.15</v>
       </c>
       <c r="D17">
-        <v>4942.25820247</v>
+        <v>3471.48387368</v>
       </c>
       <c r="E17">
-        <v>0.9088539397909284</v>
+        <v>0.6383866779639168</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -860,10 +866,10 @@
         <v>543790.15</v>
       </c>
       <c r="D18">
-        <v>4119.2308811</v>
+        <v>3497.01666093</v>
       </c>
       <c r="E18">
-        <v>0.7575037688895248</v>
+        <v>0.6430820162759475</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -877,10 +883,10 @@
         <v>543790.15</v>
       </c>
       <c r="D19">
-        <v>5265.30627268</v>
+        <v>4942.25820247</v>
       </c>
       <c r="E19">
-        <v>0.9682606925998936</v>
+        <v>0.9088539397909284</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -894,10 +900,10 @@
         <v>543790.15</v>
       </c>
       <c r="D20">
-        <v>5596.45308202</v>
+        <v>4119.2308811</v>
       </c>
       <c r="E20">
-        <v>1.029156758727608</v>
+        <v>0.7575037688895248</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -911,10 +917,10 @@
         <v>543790.15</v>
       </c>
       <c r="D21">
-        <v>4474.40115744</v>
+        <v>5265.30627268</v>
       </c>
       <c r="E21">
-        <v>0.822817617685793</v>
+        <v>0.9682606925998936</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -925,13 +931,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D22">
-        <v>5625.3151931</v>
+        <v>5596.45308202</v>
       </c>
       <c r="E22">
-        <v>1.06949793642192</v>
+        <v>1.029156758727608</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -942,13 +948,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D23">
-        <v>4894.08812933</v>
+        <v>4474.40115744</v>
       </c>
       <c r="E23">
-        <v>0.9304753556575335</v>
+        <v>0.822817617685793</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -962,10 +968,10 @@
         <v>525977.1899999999</v>
       </c>
       <c r="D24">
-        <v>6461.49832499</v>
+        <v>5625.3151931</v>
       </c>
       <c r="E24">
-        <v>1.228475007631034</v>
+        <v>1.06949793642192</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -979,10 +985,10 @@
         <v>525977.1899999999</v>
       </c>
       <c r="D25">
-        <v>4907.73112169</v>
+        <v>4894.08812933</v>
       </c>
       <c r="E25">
-        <v>0.9330691929226057</v>
+        <v>0.9304753556575335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -993,13 +999,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>510228.17</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D26">
-        <v>4973.08287541</v>
+        <v>6461.49832499</v>
       </c>
       <c r="E26">
-        <v>0.974678225902345</v>
+        <v>1.228475007631034</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1010,13 +1016,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D27">
-        <v>5404.961379</v>
+        <v>4907.73112169</v>
       </c>
       <c r="E27">
-        <v>1.088854282817829</v>
+        <v>0.9330691929226057</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1027,13 +1033,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>496389.78</v>
+        <v>510228.17</v>
       </c>
       <c r="D28">
-        <v>4589.7669578</v>
+        <v>4973.08287541</v>
       </c>
       <c r="E28">
-        <v>0.9246296242843677</v>
+        <v>0.974678225902345</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1047,10 +1053,10 @@
         <v>496389.78</v>
       </c>
       <c r="D29">
-        <v>5524.87386658</v>
+        <v>5404.961379</v>
       </c>
       <c r="E29">
-        <v>1.113011203933328</v>
+        <v>1.088854282817829</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1064,10 +1070,10 @@
         <v>496389.78</v>
       </c>
       <c r="D30">
-        <v>4606.85651392</v>
+        <v>4589.7669578</v>
       </c>
       <c r="E30">
-        <v>0.9280723938192281</v>
+        <v>0.9246296242843677</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1081,10 +1087,10 @@
         <v>496389.78</v>
       </c>
       <c r="D31">
-        <v>4342.43604047</v>
+        <v>5524.87386658</v>
       </c>
       <c r="E31">
-        <v>0.8748036755450525</v>
+        <v>1.113011203933328</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1098,10 +1104,10 @@
         <v>496389.78</v>
       </c>
       <c r="D32">
-        <v>5245.97054928</v>
+        <v>4606.85651392</v>
       </c>
       <c r="E32">
-        <v>1.056824850277941</v>
+        <v>0.9280723938192281</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1115,10 +1121,10 @@
         <v>496389.78</v>
       </c>
       <c r="D33">
-        <v>4485.45211229</v>
+        <v>4342.43604047</v>
       </c>
       <c r="E33">
-        <v>0.9036149197692989</v>
+        <v>0.8748036755450525</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1132,10 +1138,10 @@
         <v>496389.78</v>
       </c>
       <c r="D34">
-        <v>5007.75223648</v>
+        <v>5245.97054928</v>
       </c>
       <c r="E34">
-        <v>1.008834677555207</v>
+        <v>1.056824850277941</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1149,10 +1155,10 @@
         <v>496389.78</v>
       </c>
       <c r="D35">
-        <v>4663.16876628</v>
+        <v>4485.45211229</v>
       </c>
       <c r="E35">
-        <v>0.9394167555746212</v>
+        <v>0.9036149197692989</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1166,10 +1172,10 @@
         <v>496389.78</v>
       </c>
       <c r="D36">
-        <v>4763.88038986</v>
+        <v>5007.75223648</v>
       </c>
       <c r="E36">
-        <v>0.9597055744902725</v>
+        <v>1.008834677555207</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1183,10 +1189,10 @@
         <v>496389.78</v>
       </c>
       <c r="D37">
-        <v>4099.2806756</v>
+        <v>4663.16876628</v>
       </c>
       <c r="E37">
-        <v>0.8258189110178699</v>
+        <v>0.9394167555746212</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1200,10 +1206,10 @@
         <v>496389.78</v>
       </c>
       <c r="D38">
-        <v>3840.27186082</v>
+        <v>4763.88038986</v>
       </c>
       <c r="E38">
-        <v>0.7736403962265298</v>
+        <v>0.9597055744902725</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1217,10 +1223,10 @@
         <v>496389.78</v>
       </c>
       <c r="D39">
-        <v>3379.00285005</v>
+        <v>4099.2806756</v>
       </c>
       <c r="E39">
-        <v>0.6807156364198311</v>
+        <v>0.8258189110178699</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1234,10 +1240,10 @@
         <v>496389.78</v>
       </c>
       <c r="D40">
-        <v>3515.05383076</v>
+        <v>3840.27186082</v>
       </c>
       <c r="E40">
-        <v>0.708123731064729</v>
+        <v>0.7736403962265298</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1251,10 +1257,10 @@
         <v>496389.78</v>
       </c>
       <c r="D41">
-        <v>3716.7509126</v>
+        <v>3379.00285005</v>
       </c>
       <c r="E41">
-        <v>0.7487565341494339</v>
+        <v>0.6807156364198311</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1268,10 +1274,10 @@
         <v>496389.78</v>
       </c>
       <c r="D42">
-        <v>3829.32336726</v>
+        <v>3515.05383076</v>
       </c>
       <c r="E42">
-        <v>0.7714347719366825</v>
+        <v>0.708123731064729</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1285,10 +1291,10 @@
         <v>496389.78</v>
       </c>
       <c r="D43">
-        <v>4392.65140698</v>
+        <v>3716.7509126</v>
       </c>
       <c r="E43">
-        <v>0.8849197916564679</v>
+        <v>0.7487565341494339</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1302,10 +1308,10 @@
         <v>496389.78</v>
       </c>
       <c r="D44">
-        <v>4053.97266986</v>
+        <v>3829.32336726</v>
       </c>
       <c r="E44">
-        <v>0.8166914052622114</v>
+        <v>0.7714347719366825</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1319,10 +1325,10 @@
         <v>496389.78</v>
       </c>
       <c r="D45">
-        <v>4780.73652266</v>
+        <v>4392.65140698</v>
       </c>
       <c r="E45">
-        <v>0.9631013198257224</v>
+        <v>0.8849197916564679</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1336,10 +1342,10 @@
         <v>496389.78</v>
       </c>
       <c r="D46">
-        <v>3922.23703732</v>
+        <v>4053.97266986</v>
       </c>
       <c r="E46">
-        <v>0.7901526573169979</v>
+        <v>0.8166914052622114</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1353,10 +1359,10 @@
         <v>496389.78</v>
       </c>
       <c r="D47">
-        <v>3982.54604492</v>
+        <v>4780.73652266</v>
       </c>
       <c r="E47">
-        <v>0.802302183763735</v>
+        <v>0.9631013198257224</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1367,13 +1373,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D48">
-        <v>3509.86621306</v>
+        <v>3922.23703732</v>
       </c>
       <c r="E48">
-        <v>0.7160355799319769</v>
+        <v>0.7901526573169979</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1384,13 +1390,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D49">
-        <v>3632.39468145</v>
+        <v>3982.54604492</v>
       </c>
       <c r="E49">
-        <v>0.7410321859551224</v>
+        <v>0.802302183763735</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1404,10 +1410,10 @@
         <v>490180.42</v>
       </c>
       <c r="D50">
-        <v>4130.88275483</v>
+        <v>3509.86621306</v>
       </c>
       <c r="E50">
-        <v>0.8427270013824706</v>
+        <v>0.7160355799319769</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1421,10 +1427,10 @@
         <v>490180.42</v>
       </c>
       <c r="D51">
-        <v>3824.81972962</v>
+        <v>3632.39468145</v>
       </c>
       <c r="E51">
-        <v>0.7802881497429049</v>
+        <v>0.7410321859551224</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1438,10 +1444,10 @@
         <v>490180.42</v>
       </c>
       <c r="D52">
-        <v>3570.71200243</v>
+        <v>4130.88275483</v>
       </c>
       <c r="E52">
-        <v>0.7284485174724034</v>
+        <v>0.8427270013824706</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1455,10 +1461,10 @@
         <v>490180.42</v>
       </c>
       <c r="D53">
-        <v>3872.77760594</v>
+        <v>3824.81972962</v>
       </c>
       <c r="E53">
-        <v>0.790071869035487</v>
+        <v>0.7802881497429049</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1472,10 +1478,10 @@
         <v>490180.42</v>
       </c>
       <c r="D54">
-        <v>4265.00352376</v>
+        <v>3570.71200243</v>
       </c>
       <c r="E54">
-        <v>0.8700885122584048</v>
+        <v>0.7284485174724034</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1489,10 +1495,10 @@
         <v>490180.42</v>
       </c>
       <c r="D55">
-        <v>4558.16716123</v>
+        <v>3872.77760594</v>
       </c>
       <c r="E55">
-        <v>0.9298958047385899</v>
+        <v>0.790071869035487</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1506,10 +1512,10 @@
         <v>490180.42</v>
       </c>
       <c r="D56">
-        <v>2978.21369346</v>
+        <v>4265.00352376</v>
       </c>
       <c r="E56">
-        <v>0.6075750013556233</v>
+        <v>0.8700885122584048</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1523,10 +1529,10 @@
         <v>490180.42</v>
       </c>
       <c r="D57">
-        <v>3219.62642126</v>
+        <v>4558.16716123</v>
       </c>
       <c r="E57">
-        <v>0.6568247710220658</v>
+        <v>0.9298958047385899</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1535,6 +1541,40 @@
       </c>
       <c r="B58" t="s">
         <v>61</v>
+      </c>
+      <c r="C58">
+        <v>490180.42</v>
+      </c>
+      <c r="D58">
+        <v>2978.21369346</v>
+      </c>
+      <c r="E58">
+        <v>0.6075750013556233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>490180.42</v>
+      </c>
+      <c r="D59">
+        <v>3219.62642126</v>
+      </c>
+      <c r="E59">
+        <v>0.6568247710220658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/成交量M1占比.xlsx
+++ b/复盘/notification_monitoring_files/成交量M1占比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2018-03-16</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>2018-03-14</t>
   </si>
   <si>
     <t>2018-03-13</t>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,10 +603,10 @@
         <v>543247.13</v>
       </c>
       <c r="D2">
-        <v>5023.59266236</v>
+        <v>3961.4609004</v>
       </c>
       <c r="E2">
-        <v>0.9247343216263287</v>
+        <v>0.7292189284828803</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -611,10 +620,10 @@
         <v>543247.13</v>
       </c>
       <c r="D3">
-        <v>6071.50774486</v>
+        <v>4352.15796464</v>
       </c>
       <c r="E3">
-        <v>1.11763273279695</v>
+        <v>0.8011377740071999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -628,10 +637,10 @@
         <v>543247.13</v>
       </c>
       <c r="D4">
-        <v>5120.20852519</v>
+        <v>4457.89260684</v>
       </c>
       <c r="E4">
-        <v>0.9425192039560338</v>
+        <v>0.820601225604266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,13 +651,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D5">
-        <v>4029.81273007</v>
+        <v>5023.59266236</v>
       </c>
       <c r="E5">
-        <v>0.7410602656318802</v>
+        <v>0.9247343216263287</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,13 +668,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D6">
-        <v>4284.83306962</v>
+        <v>6071.50774486</v>
       </c>
       <c r="E6">
-        <v>0.7879570951441471</v>
+        <v>1.11763273279695</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,13 +685,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D7">
-        <v>4984.26600567</v>
+        <v>5120.20852519</v>
       </c>
       <c r="E7">
-        <v>0.9165789423861391</v>
+        <v>0.9425192039560338</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -696,10 +705,10 @@
         <v>543790.15</v>
       </c>
       <c r="D8">
-        <v>3863.79478227</v>
+        <v>4029.81273007</v>
       </c>
       <c r="E8">
-        <v>0.7105304835459045</v>
+        <v>0.7410602656318802</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -713,10 +722,10 @@
         <v>543790.15</v>
       </c>
       <c r="D9">
-        <v>4168.15888275</v>
+        <v>4284.83306962</v>
       </c>
       <c r="E9">
-        <v>0.7665013576928525</v>
+        <v>0.7879570951441471</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -730,10 +739,10 @@
         <v>543790.15</v>
       </c>
       <c r="D10">
-        <v>4325.13407763</v>
+        <v>4984.26600567</v>
       </c>
       <c r="E10">
-        <v>0.7953682275469683</v>
+        <v>0.9165789423861391</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -747,10 +756,10 @@
         <v>543790.15</v>
       </c>
       <c r="D11">
-        <v>4248.73862735</v>
+        <v>3863.79478227</v>
       </c>
       <c r="E11">
-        <v>0.7813195269075763</v>
+        <v>0.7105304835459045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -764,10 +773,10 @@
         <v>543790.15</v>
       </c>
       <c r="D12">
-        <v>4610.29107906</v>
+        <v>4168.15888275</v>
       </c>
       <c r="E12">
-        <v>0.8478070224442278</v>
+        <v>0.7665013576928525</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -781,10 +790,10 @@
         <v>543790.15</v>
       </c>
       <c r="D13">
-        <v>4672.11850129</v>
+        <v>4325.13407763</v>
       </c>
       <c r="E13">
-        <v>0.8591767433246078</v>
+        <v>0.7953682275469683</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -798,10 +807,10 @@
         <v>543790.15</v>
       </c>
       <c r="D14">
-        <v>3326.35790915</v>
+        <v>4248.73862735</v>
       </c>
       <c r="E14">
-        <v>0.6116988160138612</v>
+        <v>0.7813195269075763</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +824,10 @@
         <v>543790.15</v>
       </c>
       <c r="D15">
-        <v>3252.75220021</v>
+        <v>4610.29107906</v>
       </c>
       <c r="E15">
-        <v>0.5981631333723129</v>
+        <v>0.8478070224442278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -832,10 +841,10 @@
         <v>543790.15</v>
       </c>
       <c r="D16">
-        <v>2368.58961694</v>
+        <v>4672.11850129</v>
       </c>
       <c r="E16">
-        <v>0.4355705260457549</v>
+        <v>0.8591767433246078</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -849,10 +858,10 @@
         <v>543790.15</v>
       </c>
       <c r="D17">
-        <v>3471.48387368</v>
+        <v>3326.35790915</v>
       </c>
       <c r="E17">
-        <v>0.6383866779639168</v>
+        <v>0.6116988160138612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -866,10 +875,10 @@
         <v>543790.15</v>
       </c>
       <c r="D18">
-        <v>3497.01666093</v>
+        <v>3252.75220021</v>
       </c>
       <c r="E18">
-        <v>0.6430820162759475</v>
+        <v>0.5981631333723129</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -883,10 +892,10 @@
         <v>543790.15</v>
       </c>
       <c r="D19">
-        <v>4942.25820247</v>
+        <v>2368.58961694</v>
       </c>
       <c r="E19">
-        <v>0.9088539397909284</v>
+        <v>0.4355705260457549</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -900,10 +909,10 @@
         <v>543790.15</v>
       </c>
       <c r="D20">
-        <v>4119.2308811</v>
+        <v>3471.48387368</v>
       </c>
       <c r="E20">
-        <v>0.7575037688895248</v>
+        <v>0.6383866779639168</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -917,10 +926,10 @@
         <v>543790.15</v>
       </c>
       <c r="D21">
-        <v>5265.30627268</v>
+        <v>3497.01666093</v>
       </c>
       <c r="E21">
-        <v>0.9682606925998936</v>
+        <v>0.6430820162759475</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -934,10 +943,10 @@
         <v>543790.15</v>
       </c>
       <c r="D22">
-        <v>5596.45308202</v>
+        <v>4942.25820247</v>
       </c>
       <c r="E22">
-        <v>1.029156758727608</v>
+        <v>0.9088539397909284</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -951,10 +960,10 @@
         <v>543790.15</v>
       </c>
       <c r="D23">
-        <v>4474.40115744</v>
+        <v>4119.2308811</v>
       </c>
       <c r="E23">
-        <v>0.822817617685793</v>
+        <v>0.7575037688895248</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -965,13 +974,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D24">
-        <v>5625.3151931</v>
+        <v>5265.30627268</v>
       </c>
       <c r="E24">
-        <v>1.06949793642192</v>
+        <v>0.9682606925998936</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -982,13 +991,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D25">
-        <v>4894.08812933</v>
+        <v>5596.45308202</v>
       </c>
       <c r="E25">
-        <v>0.9304753556575335</v>
+        <v>1.029156758727608</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -999,13 +1008,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D26">
-        <v>6461.49832499</v>
+        <v>4474.40115744</v>
       </c>
       <c r="E26">
-        <v>1.228475007631034</v>
+        <v>0.822817617685793</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1019,10 +1028,10 @@
         <v>525977.1899999999</v>
       </c>
       <c r="D27">
-        <v>4907.73112169</v>
+        <v>5625.3151931</v>
       </c>
       <c r="E27">
-        <v>0.9330691929226057</v>
+        <v>1.06949793642192</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1033,13 +1042,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>510228.17</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D28">
-        <v>4973.08287541</v>
+        <v>4894.08812933</v>
       </c>
       <c r="E28">
-        <v>0.974678225902345</v>
+        <v>0.9304753556575335</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1050,13 +1059,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D29">
-        <v>5404.961379</v>
+        <v>6461.49832499</v>
       </c>
       <c r="E29">
-        <v>1.088854282817829</v>
+        <v>1.228475007631034</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1067,13 +1076,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D30">
-        <v>4589.7669578</v>
+        <v>4907.73112169</v>
       </c>
       <c r="E30">
-        <v>0.9246296242843677</v>
+        <v>0.9330691929226057</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1084,13 +1093,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>496389.78</v>
+        <v>510228.17</v>
       </c>
       <c r="D31">
-        <v>5524.87386658</v>
+        <v>4973.08287541</v>
       </c>
       <c r="E31">
-        <v>1.113011203933328</v>
+        <v>0.974678225902345</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1104,10 +1113,10 @@
         <v>496389.78</v>
       </c>
       <c r="D32">
-        <v>4606.85651392</v>
+        <v>5404.961379</v>
       </c>
       <c r="E32">
-        <v>0.9280723938192281</v>
+        <v>1.088854282817829</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1121,10 +1130,10 @@
         <v>496389.78</v>
       </c>
       <c r="D33">
-        <v>4342.43604047</v>
+        <v>4589.7669578</v>
       </c>
       <c r="E33">
-        <v>0.8748036755450525</v>
+        <v>0.9246296242843677</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1138,10 +1147,10 @@
         <v>496389.78</v>
       </c>
       <c r="D34">
-        <v>5245.97054928</v>
+        <v>5524.87386658</v>
       </c>
       <c r="E34">
-        <v>1.056824850277941</v>
+        <v>1.113011203933328</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1155,10 +1164,10 @@
         <v>496389.78</v>
       </c>
       <c r="D35">
-        <v>4485.45211229</v>
+        <v>4606.85651392</v>
       </c>
       <c r="E35">
-        <v>0.9036149197692989</v>
+        <v>0.9280723938192281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1172,10 +1181,10 @@
         <v>496389.78</v>
       </c>
       <c r="D36">
-        <v>5007.75223648</v>
+        <v>4342.43604047</v>
       </c>
       <c r="E36">
-        <v>1.008834677555207</v>
+        <v>0.8748036755450525</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1189,10 +1198,10 @@
         <v>496389.78</v>
       </c>
       <c r="D37">
-        <v>4663.16876628</v>
+        <v>5245.97054928</v>
       </c>
       <c r="E37">
-        <v>0.9394167555746212</v>
+        <v>1.056824850277941</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1206,10 +1215,10 @@
         <v>496389.78</v>
       </c>
       <c r="D38">
-        <v>4763.88038986</v>
+        <v>4485.45211229</v>
       </c>
       <c r="E38">
-        <v>0.9597055744902725</v>
+        <v>0.9036149197692989</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1223,10 +1232,10 @@
         <v>496389.78</v>
       </c>
       <c r="D39">
-        <v>4099.2806756</v>
+        <v>5007.75223648</v>
       </c>
       <c r="E39">
-        <v>0.8258189110178699</v>
+        <v>1.008834677555207</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1240,10 +1249,10 @@
         <v>496389.78</v>
       </c>
       <c r="D40">
-        <v>3840.27186082</v>
+        <v>4663.16876628</v>
       </c>
       <c r="E40">
-        <v>0.7736403962265298</v>
+        <v>0.9394167555746212</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1257,10 +1266,10 @@
         <v>496389.78</v>
       </c>
       <c r="D41">
-        <v>3379.00285005</v>
+        <v>4763.88038986</v>
       </c>
       <c r="E41">
-        <v>0.6807156364198311</v>
+        <v>0.9597055744902725</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1274,10 +1283,10 @@
         <v>496389.78</v>
       </c>
       <c r="D42">
-        <v>3515.05383076</v>
+        <v>4099.2806756</v>
       </c>
       <c r="E42">
-        <v>0.708123731064729</v>
+        <v>0.8258189110178699</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1291,10 +1300,10 @@
         <v>496389.78</v>
       </c>
       <c r="D43">
-        <v>3716.7509126</v>
+        <v>3840.27186082</v>
       </c>
       <c r="E43">
-        <v>0.7487565341494339</v>
+        <v>0.7736403962265298</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1308,10 +1317,10 @@
         <v>496389.78</v>
       </c>
       <c r="D44">
-        <v>3829.32336726</v>
+        <v>3379.00285005</v>
       </c>
       <c r="E44">
-        <v>0.7714347719366825</v>
+        <v>0.6807156364198311</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1325,10 +1334,10 @@
         <v>496389.78</v>
       </c>
       <c r="D45">
-        <v>4392.65140698</v>
+        <v>3515.05383076</v>
       </c>
       <c r="E45">
-        <v>0.8849197916564679</v>
+        <v>0.708123731064729</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1342,10 +1351,10 @@
         <v>496389.78</v>
       </c>
       <c r="D46">
-        <v>4053.97266986</v>
+        <v>3716.7509126</v>
       </c>
       <c r="E46">
-        <v>0.8166914052622114</v>
+        <v>0.7487565341494339</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1359,10 +1368,10 @@
         <v>496389.78</v>
       </c>
       <c r="D47">
-        <v>4780.73652266</v>
+        <v>3829.32336726</v>
       </c>
       <c r="E47">
-        <v>0.9631013198257224</v>
+        <v>0.7714347719366825</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1376,10 +1385,10 @@
         <v>496389.78</v>
       </c>
       <c r="D48">
-        <v>3922.23703732</v>
+        <v>4392.65140698</v>
       </c>
       <c r="E48">
-        <v>0.7901526573169979</v>
+        <v>0.8849197916564679</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1393,10 +1402,10 @@
         <v>496389.78</v>
       </c>
       <c r="D49">
-        <v>3982.54604492</v>
+        <v>4053.97266986</v>
       </c>
       <c r="E49">
-        <v>0.802302183763735</v>
+        <v>0.8166914052622114</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1407,13 +1416,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D50">
-        <v>3509.86621306</v>
+        <v>4780.73652266</v>
       </c>
       <c r="E50">
-        <v>0.7160355799319769</v>
+        <v>0.9631013198257224</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1424,13 +1433,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D51">
-        <v>3632.39468145</v>
+        <v>3922.23703732</v>
       </c>
       <c r="E51">
-        <v>0.7410321859551224</v>
+        <v>0.7901526573169979</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1441,13 +1450,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D52">
-        <v>4130.88275483</v>
+        <v>3982.54604492</v>
       </c>
       <c r="E52">
-        <v>0.8427270013824706</v>
+        <v>0.802302183763735</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1461,10 +1470,10 @@
         <v>490180.42</v>
       </c>
       <c r="D53">
-        <v>3824.81972962</v>
+        <v>3509.86621306</v>
       </c>
       <c r="E53">
-        <v>0.7802881497429049</v>
+        <v>0.7160355799319769</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1478,10 +1487,10 @@
         <v>490180.42</v>
       </c>
       <c r="D54">
-        <v>3570.71200243</v>
+        <v>3632.39468145</v>
       </c>
       <c r="E54">
-        <v>0.7284485174724034</v>
+        <v>0.7410321859551224</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1495,10 +1504,10 @@
         <v>490180.42</v>
       </c>
       <c r="D55">
-        <v>3872.77760594</v>
+        <v>4130.88275483</v>
       </c>
       <c r="E55">
-        <v>0.790071869035487</v>
+        <v>0.8427270013824706</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1512,10 +1521,10 @@
         <v>490180.42</v>
       </c>
       <c r="D56">
-        <v>4265.00352376</v>
+        <v>3824.81972962</v>
       </c>
       <c r="E56">
-        <v>0.8700885122584048</v>
+        <v>0.7802881497429049</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1529,10 +1538,10 @@
         <v>490180.42</v>
       </c>
       <c r="D57">
-        <v>4558.16716123</v>
+        <v>3570.71200243</v>
       </c>
       <c r="E57">
-        <v>0.9298958047385899</v>
+        <v>0.7284485174724034</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1546,10 +1555,10 @@
         <v>490180.42</v>
       </c>
       <c r="D58">
-        <v>2978.21369346</v>
+        <v>3872.77760594</v>
       </c>
       <c r="E58">
-        <v>0.6075750013556233</v>
+        <v>0.790071869035487</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1563,10 +1572,10 @@
         <v>490180.42</v>
       </c>
       <c r="D59">
-        <v>3219.62642126</v>
+        <v>4265.00352376</v>
       </c>
       <c r="E59">
-        <v>0.6568247710220658</v>
+        <v>0.8700885122584048</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1575,6 +1584,57 @@
       </c>
       <c r="B60" t="s">
         <v>63</v>
+      </c>
+      <c r="C60">
+        <v>490180.42</v>
+      </c>
+      <c r="D60">
+        <v>4558.16716123</v>
+      </c>
+      <c r="E60">
+        <v>0.9298958047385899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>490180.42</v>
+      </c>
+      <c r="D61">
+        <v>2978.21369346</v>
+      </c>
+      <c r="E61">
+        <v>0.6075750013556233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>490180.42</v>
+      </c>
+      <c r="D62">
+        <v>3219.62642126</v>
+      </c>
+      <c r="E62">
+        <v>0.6568247710220658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/成交量M1占比.xlsx
+++ b/复盘/notification_monitoring_files/成交量M1占比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,39 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>2018-03-22</t>
+  </si>
+  <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
   </si>
   <si>
     <t>2018-03-16</t>
@@ -572,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D2">
-        <v>3961.4609004</v>
+        <v>3825.86945641</v>
       </c>
       <c r="E2">
-        <v>0.7292189284828803</v>
+        <v>0.739961923426259</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,13 +650,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D3">
-        <v>4352.15796464</v>
+        <v>4437.8465731</v>
       </c>
       <c r="E3">
-        <v>0.8011377740071999</v>
+        <v>0.8583244994415186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,13 +667,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D4">
-        <v>4457.89260684</v>
+        <v>4219.48144735</v>
       </c>
       <c r="E4">
-        <v>0.820601225604266</v>
+        <v>0.8160904712552022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,13 +684,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D5">
-        <v>5023.59266236</v>
+        <v>3603.79562508</v>
       </c>
       <c r="E5">
-        <v>0.9247343216263287</v>
+        <v>0.6970105939975281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,13 +701,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D6">
-        <v>6071.50774486</v>
+        <v>4074.55593171</v>
       </c>
       <c r="E6">
-        <v>1.11763273279695</v>
+        <v>0.7880604078857257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,13 +718,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D7">
-        <v>5120.20852519</v>
+        <v>3851.82859712</v>
       </c>
       <c r="E7">
-        <v>0.9425192039560338</v>
+        <v>0.7449826843040462</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D8">
-        <v>4029.81273007</v>
+        <v>6353.12062885</v>
       </c>
       <c r="E8">
-        <v>0.7410602656318802</v>
+        <v>1.228757910808105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,13 +752,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D9">
-        <v>4284.83306962</v>
+        <v>4237.90236978</v>
       </c>
       <c r="E9">
-        <v>0.7879570951441471</v>
+        <v>0.8196532643269185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,13 +769,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D10">
-        <v>4984.26600567</v>
+        <v>4815.35781937</v>
       </c>
       <c r="E10">
-        <v>0.9165789423861391</v>
+        <v>0.9313390000897228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,13 +786,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D11">
-        <v>3863.79478227</v>
+        <v>4022.15216705</v>
       </c>
       <c r="E11">
-        <v>0.7105304835459045</v>
+        <v>0.7779249887517502</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,13 +803,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D12">
-        <v>4168.15888275</v>
+        <v>3969.02889624</v>
       </c>
       <c r="E12">
-        <v>0.7665013576928525</v>
+        <v>0.7676504098370406</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,13 +820,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D13">
-        <v>4325.13407763</v>
+        <v>3961.4609004</v>
       </c>
       <c r="E13">
-        <v>0.7953682275469683</v>
+        <v>0.7292189284828803</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,13 +837,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D14">
-        <v>4248.73862735</v>
+        <v>4352.15796464</v>
       </c>
       <c r="E14">
-        <v>0.7813195269075763</v>
+        <v>0.8011377740071999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +854,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D15">
-        <v>4610.29107906</v>
+        <v>4457.89260684</v>
       </c>
       <c r="E15">
-        <v>0.8478070224442278</v>
+        <v>0.820601225604266</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D16">
-        <v>4672.11850129</v>
+        <v>5023.59266236</v>
       </c>
       <c r="E16">
-        <v>0.8591767433246078</v>
+        <v>0.9247343216263287</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -855,13 +888,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D17">
-        <v>3326.35790915</v>
+        <v>6071.50774486</v>
       </c>
       <c r="E17">
-        <v>0.6116988160138612</v>
+        <v>1.11763273279695</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D18">
-        <v>3252.75220021</v>
+        <v>5120.20852519</v>
       </c>
       <c r="E18">
-        <v>0.5981631333723129</v>
+        <v>0.9425192039560338</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,10 +925,10 @@
         <v>543790.15</v>
       </c>
       <c r="D19">
-        <v>2368.58961694</v>
+        <v>4029.81273007</v>
       </c>
       <c r="E19">
-        <v>0.4355705260457549</v>
+        <v>0.7410602656318802</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -909,10 +942,10 @@
         <v>543790.15</v>
       </c>
       <c r="D20">
-        <v>3471.48387368</v>
+        <v>4284.83306962</v>
       </c>
       <c r="E20">
-        <v>0.6383866779639168</v>
+        <v>0.7879570951441471</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -926,10 +959,10 @@
         <v>543790.15</v>
       </c>
       <c r="D21">
-        <v>3497.01666093</v>
+        <v>4984.26600567</v>
       </c>
       <c r="E21">
-        <v>0.6430820162759475</v>
+        <v>0.9165789423861391</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -943,10 +976,10 @@
         <v>543790.15</v>
       </c>
       <c r="D22">
-        <v>4942.25820247</v>
+        <v>3863.79478227</v>
       </c>
       <c r="E22">
-        <v>0.9088539397909284</v>
+        <v>0.7105304835459045</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -960,10 +993,10 @@
         <v>543790.15</v>
       </c>
       <c r="D23">
-        <v>4119.2308811</v>
+        <v>4168.15888275</v>
       </c>
       <c r="E23">
-        <v>0.7575037688895248</v>
+        <v>0.7665013576928525</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -977,10 +1010,10 @@
         <v>543790.15</v>
       </c>
       <c r="D24">
-        <v>5265.30627268</v>
+        <v>4325.13407763</v>
       </c>
       <c r="E24">
-        <v>0.9682606925998936</v>
+        <v>0.7953682275469683</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -994,10 +1027,10 @@
         <v>543790.15</v>
       </c>
       <c r="D25">
-        <v>5596.45308202</v>
+        <v>4248.73862735</v>
       </c>
       <c r="E25">
-        <v>1.029156758727608</v>
+        <v>0.7813195269075763</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,10 +1044,10 @@
         <v>543790.15</v>
       </c>
       <c r="D26">
-        <v>4474.40115744</v>
+        <v>4610.29107906</v>
       </c>
       <c r="E26">
-        <v>0.822817617685793</v>
+        <v>0.8478070224442278</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1025,13 +1058,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D27">
-        <v>5625.3151931</v>
+        <v>4672.11850129</v>
       </c>
       <c r="E27">
-        <v>1.06949793642192</v>
+        <v>0.8591767433246078</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1042,13 +1075,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D28">
-        <v>4894.08812933</v>
+        <v>3326.35790915</v>
       </c>
       <c r="E28">
-        <v>0.9304753556575335</v>
+        <v>0.6116988160138612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1059,13 +1092,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D29">
-        <v>6461.49832499</v>
+        <v>3252.75220021</v>
       </c>
       <c r="E29">
-        <v>1.228475007631034</v>
+        <v>0.5981631333723129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1076,13 +1109,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D30">
-        <v>4907.73112169</v>
+        <v>2368.58961694</v>
       </c>
       <c r="E30">
-        <v>0.9330691929226057</v>
+        <v>0.4355705260457549</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1093,13 +1126,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>510228.17</v>
+        <v>543790.15</v>
       </c>
       <c r="D31">
-        <v>4973.08287541</v>
+        <v>3471.48387368</v>
       </c>
       <c r="E31">
-        <v>0.974678225902345</v>
+        <v>0.6383866779639168</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1110,13 +1143,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D32">
-        <v>5404.961379</v>
+        <v>3497.01666093</v>
       </c>
       <c r="E32">
-        <v>1.088854282817829</v>
+        <v>0.6430820162759475</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1127,13 +1160,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D33">
-        <v>4589.7669578</v>
+        <v>4942.25820247</v>
       </c>
       <c r="E33">
-        <v>0.9246296242843677</v>
+        <v>0.9088539397909284</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1144,13 +1177,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D34">
-        <v>5524.87386658</v>
+        <v>4119.2308811</v>
       </c>
       <c r="E34">
-        <v>1.113011203933328</v>
+        <v>0.7575037688895248</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1161,13 +1194,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D35">
-        <v>4606.85651392</v>
+        <v>5265.30627268</v>
       </c>
       <c r="E35">
-        <v>0.9280723938192281</v>
+        <v>0.9682606925998936</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1178,13 +1211,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D36">
-        <v>4342.43604047</v>
+        <v>5596.45308202</v>
       </c>
       <c r="E36">
-        <v>0.8748036755450525</v>
+        <v>1.029156758727608</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1195,13 +1228,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D37">
-        <v>5245.97054928</v>
+        <v>4474.40115744</v>
       </c>
       <c r="E37">
-        <v>1.056824850277941</v>
+        <v>0.822817617685793</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1212,13 +1245,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D38">
-        <v>4485.45211229</v>
+        <v>5625.3151931</v>
       </c>
       <c r="E38">
-        <v>0.9036149197692989</v>
+        <v>1.06949793642192</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1229,13 +1262,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D39">
-        <v>5007.75223648</v>
+        <v>4894.08812933</v>
       </c>
       <c r="E39">
-        <v>1.008834677555207</v>
+        <v>0.9304753556575335</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1246,13 +1279,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D40">
-        <v>4663.16876628</v>
+        <v>6461.49832499</v>
       </c>
       <c r="E40">
-        <v>0.9394167555746212</v>
+        <v>1.228475007631034</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1263,13 +1296,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D41">
-        <v>4763.88038986</v>
+        <v>4907.73112169</v>
       </c>
       <c r="E41">
-        <v>0.9597055744902725</v>
+        <v>0.9330691929226057</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1280,13 +1313,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>496389.78</v>
+        <v>510228.17</v>
       </c>
       <c r="D42">
-        <v>4099.2806756</v>
+        <v>4973.08287541</v>
       </c>
       <c r="E42">
-        <v>0.8258189110178699</v>
+        <v>0.974678225902345</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1300,10 +1333,10 @@
         <v>496389.78</v>
       </c>
       <c r="D43">
-        <v>3840.27186082</v>
+        <v>5404.961379</v>
       </c>
       <c r="E43">
-        <v>0.7736403962265298</v>
+        <v>1.088854282817829</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1317,10 +1350,10 @@
         <v>496389.78</v>
       </c>
       <c r="D44">
-        <v>3379.00285005</v>
+        <v>4589.7669578</v>
       </c>
       <c r="E44">
-        <v>0.6807156364198311</v>
+        <v>0.9246296242843677</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1334,10 +1367,10 @@
         <v>496389.78</v>
       </c>
       <c r="D45">
-        <v>3515.05383076</v>
+        <v>5524.87386658</v>
       </c>
       <c r="E45">
-        <v>0.708123731064729</v>
+        <v>1.113011203933328</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1351,10 +1384,10 @@
         <v>496389.78</v>
       </c>
       <c r="D46">
-        <v>3716.7509126</v>
+        <v>4606.85651392</v>
       </c>
       <c r="E46">
-        <v>0.7487565341494339</v>
+        <v>0.9280723938192281</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1368,10 +1401,10 @@
         <v>496389.78</v>
       </c>
       <c r="D47">
-        <v>3829.32336726</v>
+        <v>4342.43604047</v>
       </c>
       <c r="E47">
-        <v>0.7714347719366825</v>
+        <v>0.8748036755450525</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1385,10 +1418,10 @@
         <v>496389.78</v>
       </c>
       <c r="D48">
-        <v>4392.65140698</v>
+        <v>5245.97054928</v>
       </c>
       <c r="E48">
-        <v>0.8849197916564679</v>
+        <v>1.056824850277941</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1402,10 +1435,10 @@
         <v>496389.78</v>
       </c>
       <c r="D49">
-        <v>4053.97266986</v>
+        <v>4485.45211229</v>
       </c>
       <c r="E49">
-        <v>0.8166914052622114</v>
+        <v>0.9036149197692989</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1419,10 +1452,10 @@
         <v>496389.78</v>
       </c>
       <c r="D50">
-        <v>4780.73652266</v>
+        <v>5007.75223648</v>
       </c>
       <c r="E50">
-        <v>0.9631013198257224</v>
+        <v>1.008834677555207</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1436,10 +1469,10 @@
         <v>496389.78</v>
       </c>
       <c r="D51">
-        <v>3922.23703732</v>
+        <v>4663.16876628</v>
       </c>
       <c r="E51">
-        <v>0.7901526573169979</v>
+        <v>0.9394167555746212</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1453,10 +1486,10 @@
         <v>496389.78</v>
       </c>
       <c r="D52">
-        <v>3982.54604492</v>
+        <v>4763.88038986</v>
       </c>
       <c r="E52">
-        <v>0.802302183763735</v>
+        <v>0.9597055744902725</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1467,13 +1500,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D53">
-        <v>3509.86621306</v>
+        <v>4099.2806756</v>
       </c>
       <c r="E53">
-        <v>0.7160355799319769</v>
+        <v>0.8258189110178699</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1484,13 +1517,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D54">
-        <v>3632.39468145</v>
+        <v>3840.27186082</v>
       </c>
       <c r="E54">
-        <v>0.7410321859551224</v>
+        <v>0.7736403962265298</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1501,13 +1534,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D55">
-        <v>4130.88275483</v>
+        <v>3379.00285005</v>
       </c>
       <c r="E55">
-        <v>0.8427270013824706</v>
+        <v>0.6807156364198311</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1518,13 +1551,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D56">
-        <v>3824.81972962</v>
+        <v>3515.05383076</v>
       </c>
       <c r="E56">
-        <v>0.7802881497429049</v>
+        <v>0.708123731064729</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1535,13 +1568,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D57">
-        <v>3570.71200243</v>
+        <v>3716.7509126</v>
       </c>
       <c r="E57">
-        <v>0.7284485174724034</v>
+        <v>0.7487565341494339</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1552,13 +1585,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D58">
-        <v>3872.77760594</v>
+        <v>3829.32336726</v>
       </c>
       <c r="E58">
-        <v>0.790071869035487</v>
+        <v>0.7714347719366825</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1569,13 +1602,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D59">
-        <v>4265.00352376</v>
+        <v>4392.65140698</v>
       </c>
       <c r="E59">
-        <v>0.8700885122584048</v>
+        <v>0.8849197916564679</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1586,13 +1619,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D60">
-        <v>4558.16716123</v>
+        <v>4053.97266986</v>
       </c>
       <c r="E60">
-        <v>0.9298958047385899</v>
+        <v>0.8166914052622114</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1603,13 +1636,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D61">
-        <v>2978.21369346</v>
+        <v>4780.73652266</v>
       </c>
       <c r="E61">
-        <v>0.6075750013556233</v>
+        <v>0.9631013198257224</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1620,13 +1653,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D62">
-        <v>3219.62642126</v>
+        <v>3922.23703732</v>
       </c>
       <c r="E62">
-        <v>0.6568247710220658</v>
+        <v>0.7901526573169979</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1635,6 +1668,193 @@
       </c>
       <c r="B63" t="s">
         <v>66</v>
+      </c>
+      <c r="C63">
+        <v>496389.78</v>
+      </c>
+      <c r="D63">
+        <v>3982.54604492</v>
+      </c>
+      <c r="E63">
+        <v>0.802302183763735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>490180.42</v>
+      </c>
+      <c r="D64">
+        <v>3509.86621306</v>
+      </c>
+      <c r="E64">
+        <v>0.7160355799319769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>490180.42</v>
+      </c>
+      <c r="D65">
+        <v>3632.39468145</v>
+      </c>
+      <c r="E65">
+        <v>0.7410321859551224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>490180.42</v>
+      </c>
+      <c r="D66">
+        <v>4130.88275483</v>
+      </c>
+      <c r="E66">
+        <v>0.8427270013824706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>490180.42</v>
+      </c>
+      <c r="D67">
+        <v>3824.81972962</v>
+      </c>
+      <c r="E67">
+        <v>0.7802881497429049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>490180.42</v>
+      </c>
+      <c r="D68">
+        <v>3570.71200243</v>
+      </c>
+      <c r="E68">
+        <v>0.7284485174724034</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>490180.42</v>
+      </c>
+      <c r="D69">
+        <v>3872.77760594</v>
+      </c>
+      <c r="E69">
+        <v>0.790071869035487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>490180.42</v>
+      </c>
+      <c r="D70">
+        <v>4265.00352376</v>
+      </c>
+      <c r="E70">
+        <v>0.8700885122584048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>490180.42</v>
+      </c>
+      <c r="D71">
+        <v>4558.16716123</v>
+      </c>
+      <c r="E71">
+        <v>0.9298958047385899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>490180.42</v>
+      </c>
+      <c r="D72">
+        <v>2978.21369346</v>
+      </c>
+      <c r="E72">
+        <v>0.6075750013556233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>490180.42</v>
+      </c>
+      <c r="D73">
+        <v>3219.62642126</v>
+      </c>
+      <c r="E73">
+        <v>0.6568247710220658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/成交量M1占比.xlsx
+++ b/复盘/notification_monitoring_files/成交量M1占比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,72 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2018-06-12</t>
+  </si>
+  <si>
+    <t>2018-06-07</t>
+  </si>
+  <si>
+    <t>2018-06-06</t>
+  </si>
+  <si>
+    <t>2018-06-05</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-05-30</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
   </si>
   <si>
     <t>2018-05-09</t>
@@ -605,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,10 +702,10 @@
         <v>517035.99</v>
       </c>
       <c r="D2">
-        <v>3825.86945641</v>
+        <v>3511.10658611</v>
       </c>
       <c r="E2">
-        <v>0.739961923426259</v>
+        <v>0.6790835945694998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -653,10 +719,10 @@
         <v>517035.99</v>
       </c>
       <c r="D3">
-        <v>4437.8465731</v>
+        <v>3601.19155035</v>
       </c>
       <c r="E3">
-        <v>0.8583244994415186</v>
+        <v>0.6965069395556004</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -670,10 +736,10 @@
         <v>517035.99</v>
       </c>
       <c r="D4">
-        <v>4219.48144735</v>
+        <v>3599.47311831</v>
       </c>
       <c r="E4">
-        <v>0.8160904712552022</v>
+        <v>0.6961745773848353</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -687,10 +753,10 @@
         <v>517035.99</v>
       </c>
       <c r="D5">
-        <v>3603.79562508</v>
+        <v>3707.38084116</v>
       </c>
       <c r="E5">
-        <v>0.6970105939975281</v>
+        <v>0.7170450244981978</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -704,10 +770,10 @@
         <v>517035.99</v>
       </c>
       <c r="D6">
-        <v>4074.55593171</v>
+        <v>3457.1992198</v>
       </c>
       <c r="E6">
-        <v>0.7880604078857257</v>
+        <v>0.6686573636392313</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -721,10 +787,10 @@
         <v>517035.99</v>
       </c>
       <c r="D7">
-        <v>3851.82859712</v>
+        <v>3755.35287588</v>
       </c>
       <c r="E7">
-        <v>0.7449826843040462</v>
+        <v>0.7263233021515582</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -738,10 +804,10 @@
         <v>517035.99</v>
       </c>
       <c r="D8">
-        <v>6353.12062885</v>
+        <v>4085.28210657</v>
       </c>
       <c r="E8">
-        <v>1.228757910808105</v>
+        <v>0.7901349588004503</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -755,10 +821,10 @@
         <v>517035.99</v>
       </c>
       <c r="D9">
-        <v>4237.90236978</v>
+        <v>4382.58499717</v>
       </c>
       <c r="E9">
-        <v>0.8196532643269185</v>
+        <v>0.8476363506474666</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -772,10 +838,10 @@
         <v>517035.99</v>
       </c>
       <c r="D10">
-        <v>4815.35781937</v>
+        <v>4076.77096072</v>
       </c>
       <c r="E10">
-        <v>0.9313390000897228</v>
+        <v>0.7884888169428979</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -789,10 +855,10 @@
         <v>517035.99</v>
       </c>
       <c r="D11">
-        <v>4022.15216705</v>
+        <v>3981.53330411</v>
       </c>
       <c r="E11">
-        <v>0.7779249887517502</v>
+        <v>0.7700688890361385</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -806,10 +872,10 @@
         <v>517035.99</v>
       </c>
       <c r="D12">
-        <v>3969.02889624</v>
+        <v>3986.80148632</v>
       </c>
       <c r="E12">
-        <v>0.7676504098370406</v>
+        <v>0.7710878088622033</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -820,13 +886,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D13">
-        <v>3961.4609004</v>
+        <v>3822.25584106</v>
       </c>
       <c r="E13">
-        <v>0.7292189284828803</v>
+        <v>0.739263013597951</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -837,13 +903,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D14">
-        <v>4352.15796464</v>
+        <v>4607.57601549</v>
       </c>
       <c r="E14">
-        <v>0.8011377740071999</v>
+        <v>0.891151893602223</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -854,13 +920,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D15">
-        <v>4457.89260684</v>
+        <v>4381.97996424</v>
       </c>
       <c r="E15">
-        <v>0.820601225604266</v>
+        <v>0.8475193311475281</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -871,13 +937,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D16">
-        <v>5023.59266236</v>
+        <v>4612.19518977</v>
       </c>
       <c r="E16">
-        <v>0.9247343216263287</v>
+        <v>0.8920452887177158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -888,13 +954,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D17">
-        <v>6071.50774486</v>
+        <v>3762.12283157</v>
       </c>
       <c r="E17">
-        <v>1.11763273279695</v>
+        <v>0.7276326801873116</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -905,13 +971,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>543247.13</v>
+        <v>517035.99</v>
       </c>
       <c r="D18">
-        <v>5120.20852519</v>
+        <v>3571.56057785</v>
       </c>
       <c r="E18">
-        <v>0.9425192039560338</v>
+        <v>0.6907760092000559</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -922,13 +988,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D19">
-        <v>4029.81273007</v>
+        <v>4018.86335608</v>
       </c>
       <c r="E19">
-        <v>0.7410602656318802</v>
+        <v>0.7772888993820334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -939,13 +1005,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D20">
-        <v>4284.83306962</v>
+        <v>3781.14344005</v>
       </c>
       <c r="E20">
-        <v>0.7879570951441471</v>
+        <v>0.7313114586181902</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -956,13 +1022,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D21">
-        <v>4984.26600567</v>
+        <v>4071.37140022</v>
       </c>
       <c r="E21">
-        <v>0.9165789423861391</v>
+        <v>0.7874444872241873</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -973,13 +1039,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D22">
-        <v>3863.79478227</v>
+        <v>4141.30873529</v>
       </c>
       <c r="E22">
-        <v>0.7105304835459045</v>
+        <v>0.8009710765569724</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -990,13 +1056,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D23">
-        <v>4168.15888275</v>
+        <v>4127.18403303</v>
       </c>
       <c r="E23">
-        <v>0.7665013576928525</v>
+        <v>0.7982392160031259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1007,13 +1073,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D24">
-        <v>4325.13407763</v>
+        <v>3825.86945641</v>
       </c>
       <c r="E24">
-        <v>0.7953682275469683</v>
+        <v>0.739961923426259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1024,13 +1090,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D25">
-        <v>4248.73862735</v>
+        <v>4437.8465731</v>
       </c>
       <c r="E25">
-        <v>0.7813195269075763</v>
+        <v>0.8583244994415186</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1041,13 +1107,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D26">
-        <v>4610.29107906</v>
+        <v>4219.48144735</v>
       </c>
       <c r="E26">
-        <v>0.8478070224442278</v>
+        <v>0.8160904712552022</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1058,13 +1124,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D27">
-        <v>4672.11850129</v>
+        <v>3603.79562508</v>
       </c>
       <c r="E27">
-        <v>0.8591767433246078</v>
+        <v>0.6970105939975281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1075,13 +1141,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D28">
-        <v>3326.35790915</v>
+        <v>4074.55593171</v>
       </c>
       <c r="E28">
-        <v>0.6116988160138612</v>
+        <v>0.7880604078857257</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1092,13 +1158,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D29">
-        <v>3252.75220021</v>
+        <v>3851.82859712</v>
       </c>
       <c r="E29">
-        <v>0.5981631333723129</v>
+        <v>0.7449826843040462</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1109,13 +1175,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D30">
-        <v>2368.58961694</v>
+        <v>6353.12062885</v>
       </c>
       <c r="E30">
-        <v>0.4355705260457549</v>
+        <v>1.228757910808105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1126,13 +1192,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D31">
-        <v>3471.48387368</v>
+        <v>4237.90236978</v>
       </c>
       <c r="E31">
-        <v>0.6383866779639168</v>
+        <v>0.8196532643269185</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1143,13 +1209,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D32">
-        <v>3497.01666093</v>
+        <v>4815.35781937</v>
       </c>
       <c r="E32">
-        <v>0.6430820162759475</v>
+        <v>0.9313390000897228</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1160,13 +1226,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D33">
-        <v>4942.25820247</v>
+        <v>4022.15216705</v>
       </c>
       <c r="E33">
-        <v>0.9088539397909284</v>
+        <v>0.7779249887517502</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1177,13 +1243,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>543790.15</v>
+        <v>517035.99</v>
       </c>
       <c r="D34">
-        <v>4119.2308811</v>
+        <v>3969.02889624</v>
       </c>
       <c r="E34">
-        <v>0.7575037688895248</v>
+        <v>0.7676504098370406</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1194,13 +1260,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D35">
-        <v>5265.30627268</v>
+        <v>3961.4609004</v>
       </c>
       <c r="E35">
-        <v>0.9682606925998936</v>
+        <v>0.7292189284828803</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1211,13 +1277,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D36">
-        <v>5596.45308202</v>
+        <v>4352.15796464</v>
       </c>
       <c r="E36">
-        <v>1.029156758727608</v>
+        <v>0.8011377740071999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1228,13 +1294,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>543790.15</v>
+        <v>543247.13</v>
       </c>
       <c r="D37">
-        <v>4474.40115744</v>
+        <v>4457.89260684</v>
       </c>
       <c r="E37">
-        <v>0.822817617685793</v>
+        <v>0.820601225604266</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1245,13 +1311,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>525977.1899999999</v>
+        <v>543247.13</v>
       </c>
       <c r="D38">
-        <v>5625.3151931</v>
+        <v>5023.59266236</v>
       </c>
       <c r="E38">
-        <v>1.06949793642192</v>
+        <v>0.9247343216263287</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1262,13 +1328,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>525977.1899999999</v>
+        <v>543247.13</v>
       </c>
       <c r="D39">
-        <v>4894.08812933</v>
+        <v>6071.50774486</v>
       </c>
       <c r="E39">
-        <v>0.9304753556575335</v>
+        <v>1.11763273279695</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1279,13 +1345,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>525977.1899999999</v>
+        <v>543247.13</v>
       </c>
       <c r="D40">
-        <v>6461.49832499</v>
+        <v>5120.20852519</v>
       </c>
       <c r="E40">
-        <v>1.228475007631034</v>
+        <v>0.9425192039560338</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1296,13 +1362,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>525977.1899999999</v>
+        <v>543790.15</v>
       </c>
       <c r="D41">
-        <v>4907.73112169</v>
+        <v>4029.81273007</v>
       </c>
       <c r="E41">
-        <v>0.9330691929226057</v>
+        <v>0.7410602656318802</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1313,13 +1379,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>510228.17</v>
+        <v>543790.15</v>
       </c>
       <c r="D42">
-        <v>4973.08287541</v>
+        <v>4284.83306962</v>
       </c>
       <c r="E42">
-        <v>0.974678225902345</v>
+        <v>0.7879570951441471</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1330,13 +1396,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D43">
-        <v>5404.961379</v>
+        <v>4984.26600567</v>
       </c>
       <c r="E43">
-        <v>1.088854282817829</v>
+        <v>0.9165789423861391</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1347,13 +1413,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D44">
-        <v>4589.7669578</v>
+        <v>3863.79478227</v>
       </c>
       <c r="E44">
-        <v>0.9246296242843677</v>
+        <v>0.7105304835459045</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1364,13 +1430,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D45">
-        <v>5524.87386658</v>
+        <v>4168.15888275</v>
       </c>
       <c r="E45">
-        <v>1.113011203933328</v>
+        <v>0.7665013576928525</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1381,13 +1447,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D46">
-        <v>4606.85651392</v>
+        <v>4325.13407763</v>
       </c>
       <c r="E46">
-        <v>0.9280723938192281</v>
+        <v>0.7953682275469683</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1398,13 +1464,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D47">
-        <v>4342.43604047</v>
+        <v>4248.73862735</v>
       </c>
       <c r="E47">
-        <v>0.8748036755450525</v>
+        <v>0.7813195269075763</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1415,13 +1481,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D48">
-        <v>5245.97054928</v>
+        <v>4610.29107906</v>
       </c>
       <c r="E48">
-        <v>1.056824850277941</v>
+        <v>0.8478070224442278</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1432,13 +1498,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D49">
-        <v>4485.45211229</v>
+        <v>4672.11850129</v>
       </c>
       <c r="E49">
-        <v>0.9036149197692989</v>
+        <v>0.8591767433246078</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1449,13 +1515,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D50">
-        <v>5007.75223648</v>
+        <v>3326.35790915</v>
       </c>
       <c r="E50">
-        <v>1.008834677555207</v>
+        <v>0.6116988160138612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1466,13 +1532,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D51">
-        <v>4663.16876628</v>
+        <v>3252.75220021</v>
       </c>
       <c r="E51">
-        <v>0.9394167555746212</v>
+        <v>0.5981631333723129</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1483,13 +1549,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D52">
-        <v>4763.88038986</v>
+        <v>2368.58961694</v>
       </c>
       <c r="E52">
-        <v>0.9597055744902725</v>
+        <v>0.4355705260457549</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1500,13 +1566,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D53">
-        <v>4099.2806756</v>
+        <v>3471.48387368</v>
       </c>
       <c r="E53">
-        <v>0.8258189110178699</v>
+        <v>0.6383866779639168</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1517,13 +1583,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D54">
-        <v>3840.27186082</v>
+        <v>3497.01666093</v>
       </c>
       <c r="E54">
-        <v>0.7736403962265298</v>
+        <v>0.6430820162759475</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1534,13 +1600,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D55">
-        <v>3379.00285005</v>
+        <v>4942.25820247</v>
       </c>
       <c r="E55">
-        <v>0.6807156364198311</v>
+        <v>0.9088539397909284</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1551,13 +1617,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D56">
-        <v>3515.05383076</v>
+        <v>4119.2308811</v>
       </c>
       <c r="E56">
-        <v>0.708123731064729</v>
+        <v>0.7575037688895248</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1568,13 +1634,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D57">
-        <v>3716.7509126</v>
+        <v>5265.30627268</v>
       </c>
       <c r="E57">
-        <v>0.7487565341494339</v>
+        <v>0.9682606925998936</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1585,13 +1651,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D58">
-        <v>3829.32336726</v>
+        <v>5596.45308202</v>
       </c>
       <c r="E58">
-        <v>0.7714347719366825</v>
+        <v>1.029156758727608</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1602,13 +1668,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>496389.78</v>
+        <v>543790.15</v>
       </c>
       <c r="D59">
-        <v>4392.65140698</v>
+        <v>4474.40115744</v>
       </c>
       <c r="E59">
-        <v>0.8849197916564679</v>
+        <v>0.822817617685793</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1619,13 +1685,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D60">
-        <v>4053.97266986</v>
+        <v>5625.3151931</v>
       </c>
       <c r="E60">
-        <v>0.8166914052622114</v>
+        <v>1.06949793642192</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1636,13 +1702,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D61">
-        <v>4780.73652266</v>
+        <v>4894.08812933</v>
       </c>
       <c r="E61">
-        <v>0.9631013198257224</v>
+        <v>0.9304753556575335</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1653,13 +1719,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D62">
-        <v>3922.23703732</v>
+        <v>6461.49832499</v>
       </c>
       <c r="E62">
-        <v>0.7901526573169979</v>
+        <v>1.228475007631034</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1670,13 +1736,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>496389.78</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="D63">
-        <v>3982.54604492</v>
+        <v>4907.73112169</v>
       </c>
       <c r="E63">
-        <v>0.802302183763735</v>
+        <v>0.9330691929226057</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1687,13 +1753,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>490180.42</v>
+        <v>510228.17</v>
       </c>
       <c r="D64">
-        <v>3509.86621306</v>
+        <v>4973.08287541</v>
       </c>
       <c r="E64">
-        <v>0.7160355799319769</v>
+        <v>0.974678225902345</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1704,13 +1770,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D65">
-        <v>3632.39468145</v>
+        <v>5404.961379</v>
       </c>
       <c r="E65">
-        <v>0.7410321859551224</v>
+        <v>1.088854282817829</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1721,13 +1787,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D66">
-        <v>4130.88275483</v>
+        <v>4589.7669578</v>
       </c>
       <c r="E66">
-        <v>0.8427270013824706</v>
+        <v>0.9246296242843677</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1738,13 +1804,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D67">
-        <v>3824.81972962</v>
+        <v>5524.87386658</v>
       </c>
       <c r="E67">
-        <v>0.7802881497429049</v>
+        <v>1.113011203933328</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1755,13 +1821,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D68">
-        <v>3570.71200243</v>
+        <v>4606.85651392</v>
       </c>
       <c r="E68">
-        <v>0.7284485174724034</v>
+        <v>0.9280723938192281</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1772,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D69">
-        <v>3872.77760594</v>
+        <v>4342.43604047</v>
       </c>
       <c r="E69">
-        <v>0.790071869035487</v>
+        <v>0.8748036755450525</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1789,13 +1855,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D70">
-        <v>4265.00352376</v>
+        <v>5245.97054928</v>
       </c>
       <c r="E70">
-        <v>0.8700885122584048</v>
+        <v>1.056824850277941</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1806,13 +1872,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D71">
-        <v>4558.16716123</v>
+        <v>4485.45211229</v>
       </c>
       <c r="E71">
-        <v>0.9298958047385899</v>
+        <v>0.9036149197692989</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1823,13 +1889,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D72">
-        <v>2978.21369346</v>
+        <v>5007.75223648</v>
       </c>
       <c r="E72">
-        <v>0.6075750013556233</v>
+        <v>1.008834677555207</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1840,13 +1906,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>490180.42</v>
+        <v>496389.78</v>
       </c>
       <c r="D73">
-        <v>3219.62642126</v>
+        <v>4663.16876628</v>
       </c>
       <c r="E73">
-        <v>0.6568247710220658</v>
+        <v>0.9394167555746212</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1855,6 +1921,380 @@
       </c>
       <c r="B74" t="s">
         <v>77</v>
+      </c>
+      <c r="C74">
+        <v>496389.78</v>
+      </c>
+      <c r="D74">
+        <v>4763.88038986</v>
+      </c>
+      <c r="E74">
+        <v>0.9597055744902725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>496389.78</v>
+      </c>
+      <c r="D75">
+        <v>4099.2806756</v>
+      </c>
+      <c r="E75">
+        <v>0.8258189110178699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>496389.78</v>
+      </c>
+      <c r="D76">
+        <v>3840.27186082</v>
+      </c>
+      <c r="E76">
+        <v>0.7736403962265298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>496389.78</v>
+      </c>
+      <c r="D77">
+        <v>3379.00285005</v>
+      </c>
+      <c r="E77">
+        <v>0.6807156364198311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>496389.78</v>
+      </c>
+      <c r="D78">
+        <v>3515.05383076</v>
+      </c>
+      <c r="E78">
+        <v>0.708123731064729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>496389.78</v>
+      </c>
+      <c r="D79">
+        <v>3716.7509126</v>
+      </c>
+      <c r="E79">
+        <v>0.7487565341494339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>496389.78</v>
+      </c>
+      <c r="D80">
+        <v>3829.32336726</v>
+      </c>
+      <c r="E80">
+        <v>0.7714347719366825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>496389.78</v>
+      </c>
+      <c r="D81">
+        <v>4392.65140698</v>
+      </c>
+      <c r="E81">
+        <v>0.8849197916564679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>496389.78</v>
+      </c>
+      <c r="D82">
+        <v>4053.97266986</v>
+      </c>
+      <c r="E82">
+        <v>0.8166914052622114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>496389.78</v>
+      </c>
+      <c r="D83">
+        <v>4780.73652266</v>
+      </c>
+      <c r="E83">
+        <v>0.9631013198257224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>496389.78</v>
+      </c>
+      <c r="D84">
+        <v>3922.23703732</v>
+      </c>
+      <c r="E84">
+        <v>0.7901526573169979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>496389.78</v>
+      </c>
+      <c r="D85">
+        <v>3982.54604492</v>
+      </c>
+      <c r="E85">
+        <v>0.802302183763735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>490180.42</v>
+      </c>
+      <c r="D86">
+        <v>3509.86621306</v>
+      </c>
+      <c r="E86">
+        <v>0.7160355799319769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>490180.42</v>
+      </c>
+      <c r="D87">
+        <v>3632.39468145</v>
+      </c>
+      <c r="E87">
+        <v>0.7410321859551224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>490180.42</v>
+      </c>
+      <c r="D88">
+        <v>4130.88275483</v>
+      </c>
+      <c r="E88">
+        <v>0.8427270013824706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>490180.42</v>
+      </c>
+      <c r="D89">
+        <v>3824.81972962</v>
+      </c>
+      <c r="E89">
+        <v>0.7802881497429049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>490180.42</v>
+      </c>
+      <c r="D90">
+        <v>3570.71200243</v>
+      </c>
+      <c r="E90">
+        <v>0.7284485174724034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>490180.42</v>
+      </c>
+      <c r="D91">
+        <v>3872.77760594</v>
+      </c>
+      <c r="E91">
+        <v>0.790071869035487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>490180.42</v>
+      </c>
+      <c r="D92">
+        <v>4265.00352376</v>
+      </c>
+      <c r="E92">
+        <v>0.8700885122584048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>490180.42</v>
+      </c>
+      <c r="D93">
+        <v>4558.16716123</v>
+      </c>
+      <c r="E93">
+        <v>0.9298958047385899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>490180.42</v>
+      </c>
+      <c r="D94">
+        <v>2978.21369346</v>
+      </c>
+      <c r="E94">
+        <v>0.6075750013556233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>490180.42</v>
+      </c>
+      <c r="D95">
+        <v>3219.62642126</v>
+      </c>
+      <c r="E95">
+        <v>0.6568247710220658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
